--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3276428.958415537</v>
+        <v>3273884.365721255</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>68.45099403238744</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666373</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663203</v>
+        <v>109.9645463939866</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -738,16 +738,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>49.98383149363042</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>107.5567297256359</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663203</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.2159462544349</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>34.10833718734084</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -896,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>164.700930422691</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>245.2876271783564</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.25188473404938</v>
+        <v>12.25188473404937</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372555</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149288</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -975,10 +975,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>14.56939904994445</v>
+        <v>96.4703783524613</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074782</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1038,10 +1038,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>44.59547412467356</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6224718302218</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>16.67043848791774</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2443834913143</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>45.6639998450396</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>103.0982425648377</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>142.9472988586984</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.87073484362677</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1221,13 +1221,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>50.14774867940488</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>20.27697994470635</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>55.24834863187009</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>73.73431546344885</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428212</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1895,7 +1895,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>23.10998325717214</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>93.40444476188321</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>154.0370966050017</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428212</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>36.21070476472222</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>80.08971311158757</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,16 +3424,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,10 +3478,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>140.2695301648957</v>
       </c>
     </row>
     <row r="38">
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790573</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3907,16 +3907,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3983,7 +3983,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4138,13 +4138,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>154.8443340724367</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400.3029543659141</v>
+        <v>211.367332738994</v>
       </c>
       <c r="C2" t="n">
-        <v>400.3029543659141</v>
+        <v>211.367332738994</v>
       </c>
       <c r="D2" t="n">
-        <v>400.3029543659141</v>
+        <v>211.367332738994</v>
       </c>
       <c r="E2" t="n">
-        <v>400.3029543659141</v>
+        <v>211.367332738994</v>
       </c>
       <c r="F2" t="n">
-        <v>331.1605361513813</v>
+        <v>204.4218319897906</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678515</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058987</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079189</v>
+        <v>191.8743094079187</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644761</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123838</v>
+        <v>509.4952041123832</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985595</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020278</v>
+        <v>734.4611726020272</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652812</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652812</v>
+        <v>672.2420264262262</v>
       </c>
       <c r="S2" t="n">
-        <v>589.7227393823993</v>
+        <v>511.8624171433443</v>
       </c>
       <c r="T2" t="n">
-        <v>400.3029543659141</v>
+        <v>400.787117755479</v>
       </c>
       <c r="U2" t="n">
-        <v>400.3029543659141</v>
+        <v>400.787117755479</v>
       </c>
       <c r="V2" t="n">
-        <v>400.3029543659141</v>
+        <v>211.367332738994</v>
       </c>
       <c r="W2" t="n">
-        <v>400.3029543659141</v>
+        <v>211.367332738994</v>
       </c>
       <c r="X2" t="n">
-        <v>400.3029543659141</v>
+        <v>211.367332738994</v>
       </c>
       <c r="Y2" t="n">
-        <v>400.3029543659141</v>
+        <v>211.367332738994</v>
       </c>
     </row>
     <row r="3">
@@ -4383,31 +4383,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>371.2627786323109</v>
+        <v>189.4550762544326</v>
       </c>
       <c r="C3" t="n">
-        <v>320.7740599518762</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D3" t="n">
-        <v>320.7740599518762</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E3" t="n">
-        <v>161.5366049464207</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K3" t="n">
         <v>67.13418877024219</v>
@@ -4416,43 +4416,43 @@
         <v>183.5548280772652</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140251</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.500058754661</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476359</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017076</v>
+        <v>739.5989987017069</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652812</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652812</v>
+        <v>676.9378076264288</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652812</v>
+        <v>676.9378076264288</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652812</v>
+        <v>487.5180226099438</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652812</v>
+        <v>298.0982375934589</v>
       </c>
       <c r="V3" t="n">
-        <v>750.1023486652812</v>
+        <v>298.0982375934589</v>
       </c>
       <c r="W3" t="n">
-        <v>750.1023486652812</v>
+        <v>189.4550762544326</v>
       </c>
       <c r="X3" t="n">
-        <v>560.6825636487961</v>
+        <v>189.4550762544326</v>
       </c>
       <c r="Y3" t="n">
-        <v>371.2627786323109</v>
+        <v>189.4550762544326</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="L4" t="n">
-        <v>27.0396705623019</v>
+        <v>27.03967056230183</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170745</v>
+        <v>42.98993985170729</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396374</v>
+        <v>66.41847329396353</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829038</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702829038</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702829038</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702829038</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702829038</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702829038</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702829038</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702829038</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702829038</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702829038</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702829038</v>
+        <v>15.00204697330561</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>670.6069951300151</v>
+        <v>964.2977256009967</v>
       </c>
       <c r="C5" t="n">
-        <v>301.6444781896034</v>
+        <v>797.9331494164603</v>
       </c>
       <c r="D5" t="n">
-        <v>301.6444781896034</v>
+        <v>439.6674508097099</v>
       </c>
       <c r="E5" t="n">
-        <v>53.87919821146555</v>
+        <v>53.87919821146565</v>
       </c>
       <c r="F5" t="n">
-        <v>46.93369746226207</v>
+        <v>46.93369746226218</v>
       </c>
       <c r="G5" t="n">
-        <v>34.55805631675765</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675765</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675765</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017217</v>
+        <v>111.6705539017223</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746976</v>
+        <v>277.9807166746988</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030759</v>
+        <v>521.2049416030779</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709172</v>
+        <v>823.5081935709203</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582751</v>
+        <v>1135.316836582755</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079238</v>
+        <v>1416.413635079243</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332757</v>
+        <v>1621.822248332762</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837882</v>
+        <v>1727.902815837888</v>
       </c>
       <c r="R5" t="n">
-        <v>1727.902815837882</v>
+        <v>1727.902815837888</v>
       </c>
       <c r="S5" t="n">
-        <v>1586.99497559823</v>
+        <v>1727.902815837888</v>
       </c>
       <c r="T5" t="n">
-        <v>1375.135640734666</v>
+        <v>1727.902815837888</v>
       </c>
       <c r="U5" t="n">
-        <v>1375.135640734666</v>
+        <v>1727.902815837888</v>
       </c>
       <c r="V5" t="n">
-        <v>1044.072753391095</v>
+        <v>1727.902815837888</v>
       </c>
       <c r="W5" t="n">
-        <v>1044.072753391095</v>
+        <v>1727.902815837888</v>
       </c>
       <c r="X5" t="n">
-        <v>670.6069951300151</v>
+        <v>1354.437057576808</v>
       </c>
       <c r="Y5" t="n">
-        <v>670.6069951300151</v>
+        <v>964.2977256009967</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>372.6620599560495</v>
+        <v>132.0028829354056</v>
       </c>
       <c r="C6" t="n">
-        <v>198.2090306749225</v>
+        <v>132.0028829354056</v>
       </c>
       <c r="D6" t="n">
-        <v>49.27462101367124</v>
+        <v>132.0028829354056</v>
       </c>
       <c r="E6" t="n">
-        <v>49.27462101367124</v>
+        <v>132.0028829354056</v>
       </c>
       <c r="F6" t="n">
-        <v>49.27462101367124</v>
+        <v>132.0028829354056</v>
       </c>
       <c r="G6" t="n">
-        <v>49.27462101367124</v>
+        <v>132.0028829354056</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675765</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675765</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787523</v>
+        <v>61.66788464787562</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806062</v>
+        <v>186.157723980607</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189976</v>
+        <v>399.8722171189991</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223497</v>
+        <v>668.6238185223519</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352476</v>
+        <v>958.8971200352505</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228318</v>
+        <v>1202.220686228322</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639508</v>
+        <v>1378.176233639512</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906548</v>
+        <v>1445.878660906553</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.878660906548</v>
+        <v>1401.100270703778</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.878660906548</v>
+        <v>1258.309378699373</v>
       </c>
       <c r="T6" t="n">
-        <v>1445.878660906548</v>
+        <v>1062.768760419128</v>
       </c>
       <c r="U6" t="n">
-        <v>1445.878660906548</v>
+        <v>834.6536183746842</v>
       </c>
       <c r="V6" t="n">
-        <v>1210.726552674806</v>
+        <v>599.5015101429415</v>
       </c>
       <c r="W6" t="n">
-        <v>956.4891959466042</v>
+        <v>345.2641534147398</v>
       </c>
       <c r="X6" t="n">
-        <v>748.6376957410714</v>
+        <v>300.2182199554736</v>
       </c>
       <c r="Y6" t="n">
-        <v>540.8773969761176</v>
+        <v>300.2182199554736</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.8190495858</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="C7" t="n">
-        <v>369.8190495858</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="D7" t="n">
-        <v>219.7024101734642</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="E7" t="n">
-        <v>219.7024101734642</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="F7" t="n">
-        <v>219.7024101734642</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="G7" t="n">
-        <v>51.39688307223011</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675765</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675765</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675765</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574681</v>
+        <v>64.24066662574721</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584114</v>
+        <v>132.1299861584121</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347969</v>
+        <v>206.9680378347981</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195363</v>
+        <v>287.8841338195379</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934713</v>
+        <v>342.3101561934732</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858</v>
+        <v>369.8190495858021</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495858</v>
+        <v>369.8190495858021</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495858</v>
+        <v>369.8190495858021</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495858</v>
+        <v>369.8190495858021</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495858</v>
+        <v>369.8190495858021</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8190495858</v>
+        <v>80.68330868548463</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8190495858</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8190495858</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="X7" t="n">
-        <v>369.8190495858</v>
+        <v>34.55805631675776</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.8190495858</v>
+        <v>34.55805631675776</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1391.72065486472</v>
+        <v>1314.539332743266</v>
       </c>
       <c r="C8" t="n">
-        <v>1022.758137924308</v>
+        <v>1210.399693788884</v>
       </c>
       <c r="D8" t="n">
-        <v>664.4924393175577</v>
+        <v>852.1339951821335</v>
       </c>
       <c r="E8" t="n">
-        <v>278.7041867193134</v>
+        <v>466.3457425838893</v>
       </c>
       <c r="F8" t="n">
-        <v>134.3129757509312</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="G8" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232722</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711872</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M8" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
         <v>1761.960612545596</v>
@@ -4832,22 +4832,22 @@
         <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904653</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904653</v>
+        <v>1704.678664719077</v>
       </c>
       <c r="V8" t="n">
-        <v>2168.459826904653</v>
+        <v>1704.678664719077</v>
       </c>
       <c r="W8" t="n">
-        <v>2168.459826904653</v>
+        <v>1704.678664719077</v>
       </c>
       <c r="X8" t="n">
-        <v>2168.459826904653</v>
+        <v>1704.678664719077</v>
       </c>
       <c r="Y8" t="n">
-        <v>1778.320494928842</v>
+        <v>1314.539332743266</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>672.5286484590418</v>
+        <v>583.8724219208507</v>
       </c>
       <c r="C9" t="n">
-        <v>498.0756191779149</v>
+        <v>583.8724219208507</v>
       </c>
       <c r="D9" t="n">
-        <v>349.1412095166636</v>
+        <v>434.9380122595995</v>
       </c>
       <c r="E9" t="n">
-        <v>189.9037545112081</v>
+        <v>275.700557254144</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809306</v>
+        <v>275.700557254144</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809306</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="H9" t="n">
         <v>43.36919653809306</v>
@@ -4905,28 +4905,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333487</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S9" t="n">
-        <v>1766.227047333487</v>
+        <v>1683.584007377306</v>
       </c>
       <c r="T9" t="n">
-        <v>1766.227047333487</v>
+        <v>1488.873685851282</v>
       </c>
       <c r="U9" t="n">
-        <v>1745.745249409541</v>
+        <v>1488.873685851282</v>
       </c>
       <c r="V9" t="n">
-        <v>1510.593141177798</v>
+        <v>1253.721577619539</v>
       </c>
       <c r="W9" t="n">
-        <v>1256.355784449597</v>
+        <v>999.4842208913374</v>
       </c>
       <c r="X9" t="n">
-        <v>1048.504284244064</v>
+        <v>791.6327206858045</v>
       </c>
       <c r="Y9" t="n">
-        <v>840.7439854791098</v>
+        <v>583.8724219208507</v>
       </c>
     </row>
     <row r="10">
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43.36919653809306</v>
+        <v>99.1756092975578</v>
       </c>
       <c r="C10" t="n">
-        <v>43.36919653809306</v>
+        <v>99.1756092975578</v>
       </c>
       <c r="D10" t="n">
         <v>43.36919653809306</v>
@@ -4963,7 +4963,7 @@
         <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981523</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L10" t="n">
         <v>185.7706748018941</v>
@@ -4981,31 +4981,31 @@
         <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470405991</v>
+        <v>388.3019303235343</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470405991</v>
+        <v>388.3019303235343</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470405991</v>
+        <v>388.3019303235343</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470405991</v>
+        <v>99.1756092975578</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470405991</v>
+        <v>99.1756092975578</v>
       </c>
       <c r="W10" t="n">
-        <v>520.2893470405991</v>
+        <v>99.1756092975578</v>
       </c>
       <c r="X10" t="n">
-        <v>445.8102405118628</v>
+        <v>99.1756092975578</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.0176613683328</v>
+        <v>99.1756092975578</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,10 +5051,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5118,25 +5118,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452613</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718132</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5270,46 +5270,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,19 +5510,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5531,7 +5531,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5543,10 +5543,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>427.7414352191925</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797189</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5756,10 +5756,10 @@
         <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5768,7 +5768,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
@@ -5832,16 +5832,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>184.7035232280578</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797189</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876693</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597624</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597624</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>411.9631215597624</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>411.9631215597624</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
@@ -5917,7 +5917,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2041.469518613829</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.547769317909</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="23">
@@ -5969,7 +5969,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5981,40 +5981,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6218,13 +6218,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075811</v>
@@ -6233,40 +6233,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6692,22 +6692,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6716,10 +6716,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>734.6461798836018</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>565.7099969556949</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>916.2946447138415</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6917,10 +6917,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7017,19 +7017,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7211,10 +7211,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7360,22 +7360,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7555,13 +7555,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7628,7 +7628,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
@@ -7637,22 +7637,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7728,25 +7728,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
         <v>402.7245934908939</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2040.654127232581</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1751.578900576778</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
   </sheetData>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>104.0840080815017</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194174</v>
+        <v>139.469330230033</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>72.11969353038563</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>63.3683537222866</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194174</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>112.4047682534901</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>68.52575990662478</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,16 +25312,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,10 +25366,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>78.31512318719908</v>
       </c>
     </row>
     <row r="38">
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26026,13 +26026,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>139.469330230033</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>62.56111625485153</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26314,34 +26314,34 @@
         <v>738937.5928778551</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778548</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="F2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="G2" t="n">
+        <v>726431.9397210056</v>
+      </c>
+      <c r="H2" t="n">
+        <v>726431.9397210056</v>
+      </c>
+      <c r="I2" t="n">
         <v>726431.9397210052</v>
-      </c>
-      <c r="H2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="I2" t="n">
-        <v>726431.9397210053</v>
       </c>
       <c r="J2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="K2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="L2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="M2" t="n">
         <v>726431.9397210052</v>
@@ -26350,10 +26350,10 @@
         <v>726431.9397210055</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.939721005</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210054</v>
       </c>
     </row>
     <row r="3">
@@ -26363,37 +26363,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208459</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253114</v>
+        <v>270592.3620253134</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231934</v>
+        <v>115410.0540231917</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742653</v>
+        <v>601443.2075742652</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854468</v>
+        <v>49064.94472854467</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881948</v>
+        <v>62913.63765881992</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197503</v>
+        <v>27875.2536219746</v>
       </c>
       <c r="M3" t="n">
         <v>157146.380551598</v>
@@ -26418,46 +26418,46 @@
         <v>278536.5648341298</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263464</v>
+        <v>206604.4229263459</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186733</v>
+        <v>14826.69604186734</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186734</v>
+        <v>14826.6960418673</v>
       </c>
       <c r="H4" t="n">
         <v>14826.69604186734</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.6960418673</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
+        <v>14826.69604186738</v>
+      </c>
+      <c r="L4" t="n">
+        <v>14826.69604186737</v>
+      </c>
+      <c r="M4" t="n">
+        <v>14826.69604186738</v>
+      </c>
+      <c r="N4" t="n">
         <v>14826.69604186736</v>
       </c>
-      <c r="L4" t="n">
+      <c r="O4" t="n">
         <v>14826.69604186736</v>
       </c>
-      <c r="M4" t="n">
-        <v>14826.69604186737</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>14826.69604186738</v>
-      </c>
-      <c r="O4" t="n">
-        <v>14826.69604186738</v>
-      </c>
-      <c r="P4" t="n">
-        <v>14826.69604186736</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.8004116136</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936815</v>
+        <v>76435.73471936827</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-187941.6748887342</v>
+        <v>-187941.674888734</v>
       </c>
       <c r="C6" t="n">
-        <v>185305.0732068289</v>
+        <v>185305.0732068276</v>
       </c>
       <c r="D6" t="n">
-        <v>364125.4669098917</v>
+        <v>364125.4669098933</v>
       </c>
       <c r="E6" t="n">
-        <v>9039.506280965317</v>
+        <v>9004.768355530148</v>
       </c>
       <c r="F6" t="n">
-        <v>610482.7138552309</v>
+        <v>610447.9759297953</v>
       </c>
       <c r="G6" t="n">
-        <v>610482.7138552307</v>
+        <v>610447.9759297953</v>
       </c>
       <c r="H6" t="n">
-        <v>610482.7138552309</v>
+        <v>610447.9759297953</v>
       </c>
       <c r="I6" t="n">
-        <v>610482.7138552309</v>
+        <v>610447.9759297954</v>
       </c>
       <c r="J6" t="n">
-        <v>561417.769126686</v>
+        <v>561383.0312012505</v>
       </c>
       <c r="K6" t="n">
-        <v>547569.0761964113</v>
+        <v>547534.3382709754</v>
       </c>
       <c r="L6" t="n">
-        <v>582607.4602332556</v>
+        <v>582572.7223078207</v>
       </c>
       <c r="M6" t="n">
-        <v>453336.3333036327</v>
+        <v>453301.5953781969</v>
       </c>
       <c r="N6" t="n">
-        <v>610482.7138552312</v>
+        <v>610447.9759297954</v>
       </c>
       <c r="O6" t="n">
-        <v>610482.7138552307</v>
+        <v>610447.9759297949</v>
       </c>
       <c r="P6" t="n">
-        <v>610482.7138552307</v>
+        <v>610447.9759297953</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.469940912905</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950612</v>
+        <v>758.8996292950626</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376841</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594706</v>
+        <v>431.9757039594721</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261633</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
@@ -26808,10 +26808,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,25 +26957,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.469940912905</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821562</v>
+        <v>210.4296883821578</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262289</v>
+        <v>94.81103524262153</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039899</v>
+        <v>514.2648358039896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931503</v>
+        <v>244.4501167931519</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666927</v>
+        <v>110.1392527666911</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734851</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931501</v>
+        <v>244.4501167931519</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666927</v>
+        <v>110.139252766691</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734851</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931503</v>
+        <v>244.4501167931519</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666927</v>
+        <v>110.1392527666911</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734851</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>338.425051709324</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637378</v>
+        <v>225.5722460637379</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666367</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988648</v>
+        <v>103.4793346622202</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038148</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27458,16 +27458,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>122.7246674946853</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27476,10 +27476,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409146</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265831</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846313</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>7.8840106256811</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.3381812437708</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>144.1382534352837</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715718</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098407</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>127.6160339275024</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27552,16 +27552,16 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318195</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708666</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825411</v>
+        <v>57.06999962825414</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402843</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,19 +27576,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709376</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159719</v>
+        <v>68.68604055159722</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106903</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>189.6113363027592</v>
       </c>
       <c r="U4" t="n">
         <v>286.2650814934503</v>
@@ -27616,13 +27616,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>200.5719613483165</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>136.6427428939054</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714735</v>
+        <v>308.2302560714734</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760047</v>
+        <v>92.85788772760026</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425918</v>
+        <v>23.94240680425884</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372554</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
         <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27695,10 +27695,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27710,10 +27710,10 @@
         <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>81.90097930251687</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937517</v>
+        <v>43.32085084937507</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.330606300748</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27758,10 +27758,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>161.1775110788039</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
-        <v>133.389457995742</v>
+        <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.295721259913</v>
+        <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304054</v>
+        <v>30.24193919304037</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.9111576058916</v>
+        <v>36.91115760589139</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166224</v>
+        <v>115.7603165166223</v>
       </c>
       <c r="S7" t="n">
-        <v>200.1672441130603</v>
+        <v>200.1672441130602</v>
       </c>
       <c r="T7" t="n">
         <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2443834913144</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>206.4736434787884</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>262.1746492061698</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>263.928746883013</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27929,10 +27929,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27941,13 +27941,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>36.29946757904885</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>87.42726521389434</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>205.5435940233622</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>93.36712438634225</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>197.1876907596159</v>
@@ -28065,7 +28065,7 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>151.9753399255883</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.868909745143369e-14</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.553251631224171e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29089,7 +29089,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>-9.281837992243618e-13</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>-5.780283390417846e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="30">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30703,7 +30703,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077003</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954487</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043125</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655545</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528641</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672895</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470276</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470027</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622682</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244297</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151094</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974685</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619227</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924588</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061602</v>
@@ -31124,43 +31124,43 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590854</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340084</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621738</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405035</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975332</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829656</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292676</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628874</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936716</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550082</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288822</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820373</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390168</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445827</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620023</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639164</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.925421811142</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276992</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682167</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604416</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
         <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820539</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784866</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647913</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147604</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181398</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061366</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085671</v>
+        <v>3.050852781085676</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429364</v>
+        <v>31.24454604429369</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428054</v>
+        <v>117.6180018428057</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286702</v>
+        <v>258.9373162286707</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520267</v>
+        <v>388.0799144520274</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511774</v>
+        <v>481.4474502511783</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968098</v>
+        <v>535.7030533968107</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610694</v>
+        <v>544.3712888610704</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191487</v>
+        <v>514.0343715191497</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860962</v>
+        <v>438.716443486097</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634655</v>
+        <v>329.4577782634661</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098729</v>
+        <v>191.6431310098733</v>
       </c>
       <c r="S5" t="n">
-        <v>69.5213077489898</v>
+        <v>69.52130774898993</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920253</v>
+        <v>13.35510804920256</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868536</v>
+        <v>0.2440682224868541</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030886</v>
+        <v>1.632350146030889</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403514</v>
+        <v>15.76506588403517</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062483</v>
+        <v>56.20152915062493</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475935</v>
+        <v>154.2212916475938</v>
       </c>
       <c r="K6" t="n">
-        <v>263.588751431663</v>
+        <v>263.5887514316634</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721888</v>
+        <v>354.4276051721894</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658083</v>
+        <v>413.600297965809</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468664</v>
+        <v>424.5470671468672</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374451</v>
+        <v>388.3776244374458</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872489</v>
+        <v>311.7072835872494</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547497</v>
+        <v>208.36806425475</v>
       </c>
       <c r="R6" t="n">
-        <v>101.348897663216</v>
+        <v>101.3488976632161</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947719</v>
+        <v>30.32018801947725</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378878</v>
+        <v>6.579516597378889</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757163</v>
+        <v>0.1073914569757164</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236995</v>
+        <v>1.368507528236998</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377984</v>
+        <v>12.16727602377986</v>
       </c>
       <c r="I7" t="n">
-        <v>41.1547536673453</v>
+        <v>41.15475366734537</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635557</v>
+        <v>96.75348224635574</v>
       </c>
       <c r="K7" t="n">
-        <v>158.99569282608</v>
+        <v>158.9956928260803</v>
       </c>
       <c r="L7" t="n">
-        <v>203.459746516253</v>
+        <v>203.4597465162533</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399137</v>
+        <v>214.5197755399141</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528488</v>
+        <v>209.4189747528491</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275347</v>
+        <v>193.432318627535</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514998</v>
+        <v>165.5147650515001</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235542</v>
+        <v>114.5938440235545</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054707</v>
+        <v>61.53307486054718</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391199</v>
+        <v>23.84935392391204</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830798</v>
+        <v>5.847259438830808</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656348</v>
+        <v>0.07464586517656362</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963282</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>436.4492970000073</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>718.5832682008314</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,25 +32309,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>194.5189324111248</v>
       </c>
       <c r="M18" t="n">
-        <v>433.9798411722585</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214699</v>
@@ -32336,7 +32336,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32503,7 +32503,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32552,22 +32552,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>229.6463482471731</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>688.8020111197783</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q21" t="n">
         <v>375.5996128485291</v>
@@ -32576,7 +32576,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32643,7 +32643,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>324.5433647340733</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.267838362266</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>491.597732526532</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>209.7242506524599</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>754.0002396832324</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33968,28 +33968,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>268.6704608606964</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34205,19 +34205,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>209.9499448422525</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34229,7 +34229,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34448,7 +34448,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>285.8867128925984</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868222</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788355</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973023</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197549</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504118</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405815</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916013</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065995</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781483</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606293</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755149</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996323</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848231</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855714</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765007</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646089</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061166</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520837</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400637</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198394</v>
+        <v>77.8914117019844</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070462</v>
+        <v>167.9900634070469</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811902</v>
+        <v>245.681035281191</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695371</v>
+        <v>305.356820169538</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644785</v>
+        <v>314.9582252644795</v>
       </c>
       <c r="O5" t="n">
-        <v>283.936160097462</v>
+        <v>283.9361600974629</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308266</v>
+        <v>207.4834477308274</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.152088389016</v>
+        <v>107.1520883890166</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092685</v>
+        <v>27.38366498092714</v>
       </c>
       <c r="K6" t="n">
-        <v>125.747312457304</v>
+        <v>125.7473124573044</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923146</v>
+        <v>215.8732253923152</v>
       </c>
       <c r="M6" t="n">
-        <v>271.46626404379</v>
+        <v>271.4662640437907</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635331</v>
+        <v>293.2053550635338</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930007</v>
+        <v>245.7813799930014</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729186</v>
+        <v>177.7328761729192</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872815</v>
+        <v>68.38629016872852</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554461</v>
+        <v>29.98243465554489</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501469</v>
+        <v>68.57507023501506</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230867</v>
+        <v>75.59399159230907</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761556</v>
+        <v>81.73343028761593</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569188</v>
+        <v>54.97578017569222</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235222</v>
+        <v>27.78676100235251</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>261.348781916454</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>302.474889585677</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>587.2415561174981</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>55.96455263125056</v>
       </c>
       <c r="M18" t="n">
-        <v>291.8458072502402</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071396</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>91.80490927281406</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>546.2057666753338</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36288,7 +36288,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>182.409330812055</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402477</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>82.88662398579324</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998991</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37853,19 +37853,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37877,7 +37877,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
